--- a/FUNKCE/graphs/ALL-LIKEE-1000-1024.xlsx
+++ b/FUNKCE/graphs/ALL-LIKEE-1000-1024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="1" r:id="rId1"/>
@@ -6660,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K70"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10488,7 +10488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9086E408-ED3B-4252-830A-3DD20D77025E}">
   <dimension ref="B1:BS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
